--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80005-5820-zero.desktop-w-SIDE.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80005-5820-zero.desktop-w-SIDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDEFE39-8D1B-8341-9FA7-60603D34FCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80EBE6-C3F5-364A-AB1C-769C3AB9F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>desktop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>考勤/请假/培训/出差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t>zero.wf.office.training.done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull-request</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +862,7 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -965,10 +965,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>22</v>
@@ -980,25 +980,25 @@
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1014,13 +1014,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>21</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
@@ -1045,22 +1045,22 @@
         <v>4</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B9" si="0">A$6</f>
@@ -1076,22 +1076,22 @@
         <v>4</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="I8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1107,22 +1107,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="I9" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$5</f>
@@ -1138,13 +1138,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>21</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$10</f>
@@ -1169,22 +1169,22 @@
         <v>4</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="I11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ref="B12:B13" si="1">A$10</f>
@@ -1200,22 +1200,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1231,22 +1231,22 @@
         <v>4</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="I13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>A$5</f>
@@ -1262,13 +1262,13 @@
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>21</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$14</f>
@@ -1293,22 +1293,22 @@
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="I15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B17" si="2">A$14</f>
@@ -1324,22 +1324,22 @@
         <v>4</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="I16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1355,22 +1355,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="I17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>A$5</f>
@@ -1386,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>21</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>A$18</f>
@@ -1417,22 +1417,22 @@
         <v>4</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="I19" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" ref="B20:B21" si="3">A$18</f>
@@ -1448,22 +1448,22 @@
         <v>4</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="I20" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="3"/>
@@ -1479,16 +1479,16 @@
         <v>4</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="I21" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="12"/>
     </row>
